--- a/Tri runes selon profil.xlsx
+++ b/Tri runes selon profil.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SMA - Notes\sw_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Google Drive 2\Git\sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D74675C-A992-4895-9B9A-12FC52DB34BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="20880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home - Params" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Runes" sheetId="2" r:id="rId3"/>
+    <sheet name="Sells Exclusion" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="118">
   <si>
     <t>RULES ALWAYS TRUE</t>
   </si>
@@ -434,11 +447,38 @@
   <si>
     <t>Weight per stat</t>
   </si>
+  <si>
+    <t>Rage &gt; Violent &gt; Stat used for DD (Energy, Guard, Fatal)</t>
+  </si>
+  <si>
+    <t>Sell exclusion</t>
+  </si>
+  <si>
+    <t>Hero triple SPD</t>
+  </si>
+  <si>
+    <t>CR - SPD - ATK / DEF / HP - CD - ATK flat</t>
+  </si>
+  <si>
+    <t>SPD - HP - DEF - ACC</t>
+  </si>
+  <si>
+    <t>Rage - Violent - Energy - Guard - Fatal - Will - Blade - Revenge</t>
+  </si>
+  <si>
+    <t>Violent - Despair - Swift - Will - Nemesis - Energy - Focus - Shield - Seal - Revenge - (aug. Stat)</t>
+  </si>
+  <si>
+    <t>HP - SPD - DEF - CR</t>
+  </si>
+  <si>
+    <t>Violent - Will - Revenge - Nemesis - Energy / Guard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -966,9 +1006,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -979,9 +1016,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,13 +1070,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,9 +1181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,78 +1191,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1442,11 +1479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -1477,122 +1514,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="30" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="19" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="29" t="s">
+      <c r="Y3" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="Y4" s="28" t="s">
@@ -1607,34 +1644,34 @@
       <c r="AF4" s="28"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y5" s="28"/>
@@ -1647,34 +1684,34 @@
       <c r="AF5" s="28"/>
     </row>
     <row r="6" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y6" s="28"/>
@@ -1687,34 +1724,34 @@
       <c r="AF6" s="28"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="K7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="17" t="s">
         <v>70</v>
       </c>
       <c r="Y7" s="28"/>
@@ -1727,66 +1764,66 @@
       <c r="AF7" s="28"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="19" t="s">
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="Y9" t="s">
@@ -1794,34 +1831,34 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y10" t="s">
@@ -1829,34 +1866,34 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1871,35 +1908,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="T1" s="65" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="T1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1910,49 +1947,49 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="T4" s="53" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="T4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="54"/>
-      <c r="V4" s="55"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="36"/>
     </row>
     <row r="5" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="T5" s="53" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="T5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="55"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1966,57 +2003,57 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="54"/>
-      <c r="V6" s="55"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="I8" s="60" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="I8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2056,18 +2093,18 @@
       <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="43">
         <v>1</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="61">
+      <c r="J10" s="44"/>
+      <c r="K10" s="43">
         <v>2</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="62"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="44"/>
       <c r="N10" s="28">
         <v>3</v>
       </c>
@@ -2145,37 +2182,37 @@
       <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="M17" s="49" t="s">
@@ -2224,195 +2261,195 @@
       <c r="N18" s="52"/>
     </row>
     <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <f>B18/375/8</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f>C18/20/8</f>
         <v>0</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f>D18/20/8</f>
         <v>0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f>E18/8/8</f>
         <v>0.125</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f>F18/8/8</f>
         <v>0.125</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f>G18/8/8</f>
         <v>0.125</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f>H18/6/8</f>
         <v>0</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>I18/7/8</f>
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f>J18/8/8</f>
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f>K18/8/8</f>
         <v>0.125</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f>L18/6/8</f>
         <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <f>B18/1000/8</f>
         <v>0.125</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <f>C18/70/8</f>
         <v>0</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f>D18/70/8</f>
         <v>0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <f>E19+B20</f>
         <v>0.25</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f>F19+C20</f>
         <v>0.125</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <f>G19+D20</f>
         <v>0.125</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f>H19</f>
         <v>0</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f t="shared" ref="I20:L20" si="0">I19</f>
         <v>0</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="3">
         <f>ROUNDUP(B18/375,0)</f>
         <v>3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="3">
         <f>ROUNDUP(C18/20,0)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="3">
         <f>ROUNDUP(D18/20,0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <f>ROUNDUP(E18/8,0)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="3">
         <f>ROUNDUP(F18/8,0)</f>
         <v>1</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="3">
         <f>ROUNDUP(G18/8,0)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="3">
         <f>ROUNDUP(H18/6,0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="3">
         <f>ROUNDUP(I18/7,0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="3">
         <f>ROUNDUP(J18/8,0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="3">
         <f>ROUNDUP(K18/8,0)</f>
         <v>1</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="3">
         <f>ROUNDUP(L18/6,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="9" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -2420,168 +2457,168 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f>IF(G$20=MAX(E$20:G$20),H$20+L$20+G$20+I$20+E$20/2+J$20/2,
 IF(E$20=MAX(E$20:G$20),H$20+L$20+E$20+I$20+G$20+J$20/2,H$20+L$20+F$20+I$20+G$20+E$20/2+$J20/2))</f>
         <v>1</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <f>L$20+E$20+F$20+J$20+K$20/2</f>
         <v>1.0625</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <f>E$20+L$20+F$20+H$20+I$20/2+J$20/2</f>
         <v>1</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <f>E$20+F$20+J$20+L$20+K$20/2+G$20/2</f>
         <v>1.125</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <f>G$20+L$20+J$20+E$20+H$20/2+K$20/2</f>
         <v>1.0625</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <f>F$20+E$20+K$20</f>
         <v>0.5</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <f>L$20+F$20+K$20+E$20+G$20/2</f>
         <v>1.1875</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <f>E$20+K$20+F$20</f>
         <v>0.5</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <f>L$20+E$20/2+J$20/2</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f>IF(G$20=MAX(E$20:G$20),H$20+L$20/2+G$20/2+I$20/3+E$20/4/2+J$20/4/2,
 IF(E$20=MAX(E$20:G$20),H$20+L$20/2+E$20/2+I$20/3+G$20/4+J$20/5/2,H$20+L$20/2+F$20/2+I$20/3+G$20/4+E$20/5/2+$J20/5/2))</f>
         <v>0.46875</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <f>L$20+E$20/2+F$20/3+J$20/4+K$20/5/2</f>
         <v>0.80416666666666659</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <f>E$20+L$20/2+F$20/3+H$20/4+I$20/5/2+J$20/5/2</f>
         <v>0.60416666666666663</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <f>E$20+F$20/2+J$20/3+L$20/4+K$20/5/2+G$20/5/2</f>
         <v>0.49375000000000002</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <f>G$20+L$20/2+J$20/3+E$20/4+H$20/5/2+K$20/5/2</f>
         <v>0.51249999999999996</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <f>F$20+E$20/2+K$20/3</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <f>L$20+F$20/2+K$20/3+E$20/4+G$20/5/2</f>
         <v>0.80416666666666659</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="10">
         <f>E$20+K$20/2+F$20/3</f>
         <v>0.35416666666666669</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <f>L$20+E$20/2/2+J$20/2/2</f>
         <v>0.6875</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2589,10 +2626,10 @@
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2601,37 +2638,37 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="G30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="58"/>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -2640,35 +2677,35 @@
       <c r="E31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="39"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="61"/>
     </row>
     <row r="32" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2677,35 +2714,35 @@
       <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="42"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="63"/>
     </row>
     <row r="33" spans="2:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2714,35 +2751,35 @@
       <c r="E33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="21" t="s">
+      <c r="F33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="42"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="63"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -2751,35 +2788,35 @@
       <c r="E34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="21" t="s">
+      <c r="F34" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="M34" s="43"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="45"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="66"/>
     </row>
     <row r="35" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -2788,31 +2825,31 @@
       <c r="E35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="19" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="M35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
     </row>
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -2821,17 +2858,17 @@
       <c r="E36" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="21" t="s">
+      <c r="F36" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="19" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M36" s="28" t="s">
@@ -2846,10 +2883,10 @@
       <c r="T36" s="28"/>
     </row>
     <row r="37" spans="2:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -2858,15 +2895,15 @@
       <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="22" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="18" t="s">
         <v>85</v>
       </c>
       <c r="M37" s="28"/>
@@ -2879,31 +2916,31 @@
       <c r="T37" s="28"/>
     </row>
     <row r="38" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="27" t="s">
+      <c r="C38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="25"/>
+      <c r="J38" s="23"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
@@ -2984,16 +3021,16 @@
       <c r="T45" s="28"/>
     </row>
     <row r="46" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M47" s="28" t="s">
@@ -3119,16 +3156,16 @@
     </row>
     <row r="64" spans="13:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="13:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="M72" s="29" t="s">
+      <c r="M72" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
     </row>
     <row r="73" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M73" s="28" t="s">
@@ -3174,20 +3211,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="M36:T45"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="M47:T58"/>
+    <mergeCell ref="M72:T72"/>
+    <mergeCell ref="M73:T76"/>
     <mergeCell ref="M35:T35"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
@@ -3200,24 +3228,33 @@
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="M30:T30"/>
     <mergeCell ref="M31:T34"/>
-    <mergeCell ref="M36:T45"/>
-    <mergeCell ref="M46:T46"/>
-    <mergeCell ref="M47:T58"/>
-    <mergeCell ref="M72:T72"/>
-    <mergeCell ref="M73:T76"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T5:V5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1" display="https://www.reddit.com/r/summonerswar/comments/xxuzgy/rune_clean_up_tool_with_json_import_v_2/"/>
-    <hyperlink ref="T1:V1" location="'TL ; DR'!A1" display="RETURN TO HOME TAB"/>
-    <hyperlink ref="T5:V5" r:id="rId2" display="Vidéo for Rune Efficiency"/>
-    <hyperlink ref="T6:V6" r:id="rId3" display="Clean-up rune tool"/>
+    <hyperlink ref="A51" r:id="rId1" display="https://www.reddit.com/r/summonerswar/comments/xxuzgy/rune_clean_up_tool_with_json_import_v_2/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="T1:V1" location="'TL ; DR'!A1" display="RETURN TO HOME TAB" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="T5:V5" r:id="rId2" display="Vidéo for Rune Efficiency" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="T6:V6" r:id="rId3" display="Clean-up rune tool" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -3314,4 +3351,364 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ECB823-793E-48C1-8115-D023CCF11669}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>